--- a/source/excel/nwsl-2016/nwsl-2016-wnyf-bos-052716.xlsx
+++ b/source/excel/nwsl-2016/nwsl-2016-wnyf-bos-052716.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/wosostats/source/excel/nwsl-2016/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11448" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11518" uniqueCount="244">
   <si>
     <t>event</t>
   </si>
@@ -1331,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1400,8 +1400,12 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1458,8 +1462,12 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1516,8 +1524,12 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1574,8 +1586,12 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1632,8 +1648,12 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1688,8 +1708,12 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
@@ -1742,8 +1766,12 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
@@ -1792,8 +1820,12 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
@@ -1842,8 +1874,12 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
@@ -1892,8 +1928,12 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>101</v>
       </c>
@@ -1942,8 +1982,12 @@
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>101</v>
       </c>
@@ -1990,8 +2034,12 @@
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2038,8 +2086,12 @@
       <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
       </c>
@@ -2086,8 +2138,12 @@
       <c r="T14" s="8"/>
     </row>
     <row r="15" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2134,8 +2190,12 @@
       <c r="T15" s="8"/>
     </row>
     <row r="16" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15"/>
@@ -2170,8 +2230,12 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="14"/>
       <c r="E17" s="15"/>
@@ -2202,8 +2266,12 @@
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2240,8 +2308,12 @@
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2278,8 +2350,12 @@
       <c r="T19" s="8"/>
     </row>
     <row r="20" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2316,8 +2392,12 @@
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2354,8 +2434,12 @@
       <c r="T21" s="8"/>
     </row>
     <row r="22" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2392,8 +2476,12 @@
       <c r="T22" s="8"/>
     </row>
     <row r="23" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
@@ -2430,8 +2518,12 @@
       <c r="T23" s="8"/>
     </row>
     <row r="24" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
@@ -2468,8 +2560,12 @@
       <c r="T24" s="8"/>
     </row>
     <row r="25" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,8 +2600,12 @@
       <c r="T25" s="8"/>
     </row>
     <row r="26" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,8 +2640,12 @@
       <c r="T26" s="8"/>
     </row>
     <row r="27" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>71</v>
       </c>
@@ -2576,8 +2680,12 @@
       <c r="T27" s="8"/>
     </row>
     <row r="28" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>101</v>
       </c>
@@ -2612,8 +2720,12 @@
       <c r="T28" s="8"/>
     </row>
     <row r="29" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>101</v>
       </c>
@@ -2648,8 +2760,12 @@
       <c r="T29" s="8"/>
     </row>
     <row r="30" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
@@ -2684,8 +2800,12 @@
       <c r="T30" s="8"/>
     </row>
     <row r="31" spans="1:20" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
@@ -2718,8 +2838,12 @@
       <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
@@ -2740,8 +2864,12 @@
       <c r="T32" s="8"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="23"/>
       <c r="E33" s="24"/>
@@ -2762,8 +2890,12 @@
       <c r="T33" s="8"/>
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="23"/>
       <c r="E34" s="24"/>
@@ -2784,8 +2916,12 @@
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="23"/>
       <c r="E35" s="24"/>
@@ -2806,8 +2942,12 @@
       <c r="T35" s="8"/>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="23"/>
       <c r="E36" s="24"/>
